--- a/2023/Files/Score.xlsx
+++ b/2023/Files/Score.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Projects\GitHub\IngeniumTeam\ingeniumteam.github.io\2023\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609D106-6C55-4AEE-8BD0-FFA0E8A7463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005B190-A009-406F-B0B6-F30500718598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,22 +223,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -554,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63BD49B-FA12-7840-BB21-D57E7071AF2B}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,36 +583,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
@@ -621,19 +621,19 @@
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="10"/>
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="2"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6+C7*3+C5*4</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="11"/>
@@ -711,18 +711,18 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="10"/>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="10"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="C13" s="6">
         <f>C10*5+C11+IF(AND(C12&gt;0,C12=C11 ),5,0)</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D13" s="8"/>
       <c r="F13" s="11"/>
@@ -799,18 +799,18 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="F14" s="16" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="F14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -851,18 +851,18 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="F17" s="16" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="F17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -870,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="5">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7"/>
       <c r="F18" s="10"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="C19" s="5">
         <f>C22</f>
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7"/>
       <c r="F19" s="10"/>
@@ -923,18 +923,18 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="F21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="A21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="F21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="C22" s="6">
         <f>SUM(C8,C13,C16)</f>
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="1"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="C23" s="6">
         <f>C22+C20+1</f>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="1"/>
@@ -999,11 +999,6 @@
     <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A1:I2"/>
@@ -1012,6 +1007,11 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
